--- a/matlab/experiment/28Aug/30deg/sim30deg3.xlsx
+++ b/matlab/experiment/28Aug/30deg/sim30deg3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\28Aug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\28Aug\30deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB98587-2B0A-4633-AC19-93291747685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A1165-7E71-46D0-B5E8-8C87926043CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="6" xr2:uid="{08378CD8-7C64-4970-AE14-47B4CE005761}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{08378CD8-7C64-4970-AE14-47B4CE005761}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +104,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>93377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D44C8E-35D5-412C-A237-22689BCE19D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="22861"/>
+          <a:ext cx="7581899" cy="3910996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222233</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>579121</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2684E654-B349-44E9-918B-4FB24D215402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7537433" y="0"/>
+          <a:ext cx="5233688" cy="3923770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,13 +508,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B9B50-D507-44D4-9318-2EA3AD0193D2}">
-  <dimension ref="A1"/>
+  <dimension ref="C25:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="144" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.497</v>
+      </c>
+      <c r="E25">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H25">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>225.6</v>
+      </c>
+      <c r="E26">
+        <v>107.9</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>299.5</v>
+      </c>
+      <c r="H26">
+        <v>200.6</v>
+      </c>
+      <c r="I26">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>-4.4608993700466453</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3825,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4B1C80-EED1-43FE-AB8B-B193A7B4C23B}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
